--- a/URDU DATASET.xlsx
+++ b/URDU DATASET.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Hajra Malik\Desktop\THESIS\VLM\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Hajra Malik\Desktop\doctor_survey\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1325" uniqueCount="316">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2142" uniqueCount="495">
   <si>
     <t>QID_unique</t>
   </si>
@@ -972,6 +972,543 @@
   </si>
   <si>
     <t>غیر متوازن</t>
+  </si>
+  <si>
+    <t>QUESTION_urdu</t>
+  </si>
+  <si>
+    <t>IMAGEORGAN_urdu</t>
+  </si>
+  <si>
+    <t>ANSWER_urdu</t>
+  </si>
+  <si>
+    <t>Are regions of the brain infarcted?</t>
+  </si>
+  <si>
+    <t>PRES</t>
+  </si>
+  <si>
+    <t>Yes</t>
+  </si>
+  <si>
+    <t>CLOSED</t>
+  </si>
+  <si>
+    <t>Are the lungs normal appearing?</t>
+  </si>
+  <si>
+    <t>ABN</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>Is there evidence of a pneumothorax</t>
+  </si>
+  <si>
+    <t>What type of imaging does this not represent?</t>
+  </si>
+  <si>
+    <t>MODALITY</t>
+  </si>
+  <si>
+    <t>ultrasound</t>
+  </si>
+  <si>
+    <t>OPEN</t>
+  </si>
+  <si>
+    <t>Is this a MRI of the chest?</t>
+  </si>
+  <si>
+    <t>no</t>
+  </si>
+  <si>
+    <t>What is not pictured in this image?</t>
+  </si>
+  <si>
+    <t>ORGAN</t>
+  </si>
+  <si>
+    <t>The extremities</t>
+  </si>
+  <si>
+    <t>Is the trachea midline?</t>
+  </si>
+  <si>
+    <t>yes</t>
+  </si>
+  <si>
+    <t>Is there evidence of an aortic aneurysm?</t>
+  </si>
+  <si>
+    <t>Where is the abnormality?</t>
+  </si>
+  <si>
+    <t>POS</t>
+  </si>
+  <si>
+    <t>left temporal lobe</t>
+  </si>
+  <si>
+    <t>Is there blunting of the costovertebral angles?</t>
+  </si>
+  <si>
+    <t>Which organ system is abnormal in this image?</t>
+  </si>
+  <si>
+    <t>Cardiovascular</t>
+  </si>
+  <si>
+    <t>Is there airspace consolidation on the left side?</t>
+  </si>
+  <si>
+    <t>Is this an axial plane?</t>
+  </si>
+  <si>
+    <t>PLANE</t>
+  </si>
+  <si>
+    <t>Where is the pathology in this image?</t>
+  </si>
+  <si>
+    <t>vasculature</t>
+  </si>
+  <si>
+    <t>Is there a pneumothorax?</t>
+  </si>
+  <si>
+    <t>What type of imaging is this?</t>
+  </si>
+  <si>
+    <t>MRI Diffusion Weighted</t>
+  </si>
+  <si>
+    <t>What organ system is pictured?</t>
+  </si>
+  <si>
+    <t>the brain</t>
+  </si>
+  <si>
+    <t>Is there a fracture?</t>
+  </si>
+  <si>
+    <t>How is the patient oriented?</t>
+  </si>
+  <si>
+    <t>OTHER</t>
+  </si>
+  <si>
+    <t>Posterior-Anterior</t>
+  </si>
+  <si>
+    <t>Is there swelling of the grey matter?</t>
+  </si>
+  <si>
+    <t>SIZE, PRES</t>
+  </si>
+  <si>
+    <t>Is there vascular pathology in this image?</t>
+  </si>
+  <si>
+    <t>Is this an anterior posterior image?</t>
+  </si>
+  <si>
+    <t>Is there cardiomyopathy?</t>
+  </si>
+  <si>
+    <t>SIZE</t>
+  </si>
+  <si>
+    <t>Is this the brain?</t>
+  </si>
+  <si>
+    <t>Is there air under the diaphragm?</t>
+  </si>
+  <si>
+    <t>What type of image is this?</t>
+  </si>
+  <si>
+    <t>Chest X-ray</t>
+  </si>
+  <si>
+    <t>Is this a CT image?</t>
+  </si>
+  <si>
+    <t>Is this an anterior-posterior image</t>
+  </si>
+  <si>
+    <t>In what plane is this image oriented?</t>
+  </si>
+  <si>
+    <t>Axial</t>
+  </si>
+  <si>
+    <t>Is there a skull fracture pictured?</t>
+  </si>
+  <si>
+    <t>Are &gt;12 ribs present in the image?</t>
+  </si>
+  <si>
+    <t>does this represent adequate inspiratory effort?</t>
+  </si>
+  <si>
+    <t>strict agreement</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Are there &gt;12 of ribs? </t>
+  </si>
+  <si>
+    <t>COUNT</t>
+  </si>
+  <si>
+    <t>Is/Are the lungs normal size?</t>
+  </si>
+  <si>
+    <t>Is there a rib fracture?</t>
+  </si>
+  <si>
+    <t>Is there evidence of any fractures of the ribs?</t>
+  </si>
+  <si>
+    <t>Is/Are there a rib fracture?</t>
+  </si>
+  <si>
+    <t>Is/Are there fracturing in the patient's ribs?</t>
+  </si>
+  <si>
+    <t>Is there any intraparenchymal abnormalities in the lung fields?</t>
+  </si>
+  <si>
+    <t>Is there evidence of any abnormalities of the lung parenchyma?</t>
+  </si>
+  <si>
+    <t>Is/Are the lung parenchyma abnormal?</t>
+  </si>
+  <si>
+    <t>was the arterial contrast phase selected?</t>
+  </si>
+  <si>
+    <t>does this plane of section include the gastric cardia?</t>
+  </si>
+  <si>
+    <t>Is there evidence of small bowel obstruction on this image?</t>
+  </si>
+  <si>
+    <t>not similar</t>
+  </si>
+  <si>
+    <t>Is there small bowel thickening present?</t>
+  </si>
+  <si>
+    <t>Is/Are there thickening in the patient's small bowel wall?</t>
+  </si>
+  <si>
+    <t>was the patient positioned appropriately 	without tilting?</t>
+  </si>
+  <si>
+    <t>was this taken with good x ray penetration</t>
+  </si>
+  <si>
+    <t>Are the common ileac arteries and veins patent in this section?</t>
+  </si>
+  <si>
+    <t>Are the common iliac vasculature open?</t>
+  </si>
+  <si>
+    <t>Is/Are there patency in the patient's common iliac arteries and veins?</t>
+  </si>
+  <si>
+    <t>Is/Are there patency in the patient's common iliac vasculature?</t>
+  </si>
+  <si>
+    <t>Is the spleen normal size?</t>
+  </si>
+  <si>
+    <t>Is the size of the spleen normal?</t>
+  </si>
+  <si>
+    <t>Is/Are the spleen normal size?</t>
+  </si>
+  <si>
+    <t>Are there air fluid levels present in the small bowel?</t>
+  </si>
+  <si>
+    <t>is there contrast material showing air-fluid levels in the small bowel</t>
+  </si>
+  <si>
+    <t>Is/Are there air fluid levels in the patient's small bowel?</t>
+  </si>
+  <si>
+    <t>Is/Are the mass located near/in the mid brain?</t>
+  </si>
+  <si>
+    <t>Is the mass compressing the mid brain on this section?</t>
+  </si>
+  <si>
+    <t>Is the mass pushing on the midbrain structures?</t>
+  </si>
+  <si>
+    <t>Is there mass compression in the patient's midbrain?</t>
+  </si>
+  <si>
+    <t>Are brain structures shifted across the midline?</t>
+  </si>
+  <si>
+    <t>is there a midline shift of the cerebral parenchyma?</t>
+  </si>
+  <si>
+    <t>Is/Are there midline shift?</t>
+  </si>
+  <si>
+    <t>Is the gallbladder large in size?</t>
+  </si>
+  <si>
+    <t>Is the gallbladder distended?</t>
+  </si>
+  <si>
+    <t>Is/Are the gallbladder large?</t>
+  </si>
+  <si>
+    <t>Is/Are the gallbladder distended?</t>
+  </si>
+  <si>
+    <t>Are there &gt;8 ribs shown in this image?</t>
+  </si>
+  <si>
+    <t>Are there at least 8 ribs visible for good inspiratory effort?</t>
+  </si>
+  <si>
+    <t>Are there &gt;8 of the ribs?</t>
+  </si>
+  <si>
+    <t>Are there at least 8 of the ribs?</t>
+  </si>
+  <si>
+    <t>is this an image of the cerebellum</t>
+  </si>
+  <si>
+    <t>Is this a transverse section?</t>
+  </si>
+  <si>
+    <t>Is the patient's vertebral body indicative of normal aging?</t>
+  </si>
+  <si>
+    <t>any observed degenerative changes in the vertebral body?</t>
+  </si>
+  <si>
+    <t>inversion</t>
+  </si>
+  <si>
+    <t>Is/Are there degeneration in the patient's vertebral body?</t>
+  </si>
+  <si>
+    <t>is the small bowel appropriately identified with GI contrast?</t>
+  </si>
+  <si>
+    <t>Is there a small bowel obstruction?</t>
+  </si>
+  <si>
+    <t>Is/Are there obstruction in the patient's small bowel?</t>
+  </si>
+  <si>
+    <t>Is there evidence of herniation of the small bowel into the abdominal wall?</t>
+  </si>
+  <si>
+    <t>Is there evidence of an abdominal hernia?</t>
+  </si>
+  <si>
+    <t>Is/Are there herniation in the patient's small bowel through the abdominal wall?</t>
+  </si>
+  <si>
+    <t>Are there air-fluid levels present on this CT radiograph?</t>
+  </si>
+  <si>
+    <t>Is there evidence of air fluid levels in the patient's bowel?</t>
+  </si>
+  <si>
+    <t>Is/Are there air fluid levels in the patient's bowel?</t>
+  </si>
+  <si>
+    <t>Have brain structures crossed the midline of the brain?</t>
+  </si>
+  <si>
+    <t>Is there evidence of midlight shift of structures on this MRI?</t>
+  </si>
+  <si>
+    <t>was this taken in PA position?</t>
+  </si>
+  <si>
+    <t>Is there evidence of air in the peritoneum?</t>
+  </si>
+  <si>
+    <t>Is there air in the peritoneal cavity?</t>
+  </si>
+  <si>
+    <t>Is/Are there air in the patient's peritoneum?</t>
+  </si>
+  <si>
+    <t>Is/Are there air in the patient's peritoneal cavity?</t>
+  </si>
+  <si>
+    <t>Are the hilar soft tissue densities symmetric?</t>
+  </si>
+  <si>
+    <t>Are the soft tissue densities in the left hilum equivalent in size to the soft tissue densities in the right hilum?</t>
+  </si>
+  <si>
+    <t>Is/Are there symmetry in the patient's hilums?</t>
+  </si>
+  <si>
+    <t>ATTRIB</t>
+  </si>
+  <si>
+    <t>Is/Are there equivalent size tissues densities in the patient's hilums?</t>
+  </si>
+  <si>
+    <t>Is the descending aortic silhouette of normal contour?</t>
+  </si>
+  <si>
+    <t>Is the descending aortic silhouette of normal contour and size?</t>
+  </si>
+  <si>
+    <t>Subsumed</t>
+  </si>
+  <si>
+    <t>ATTRIB, SIZE</t>
+  </si>
+  <si>
+    <t>Is there tortuosity of the descending aorta?</t>
+  </si>
+  <si>
+    <t>Is/Are there tortuosity in the patient's aorta?</t>
+  </si>
+  <si>
+    <t>Is the descending aortic silhouette of normal size?</t>
+  </si>
+  <si>
+    <t>are the vertebral arteries patent in this section?</t>
+  </si>
+  <si>
+    <t>Are the vertebral arteries in view?</t>
+  </si>
+  <si>
+    <t>Are the vertebral arteries patent?</t>
+  </si>
+  <si>
+    <t>Subsumes</t>
+  </si>
+  <si>
+    <t>Is/Are there vertebral arteries?</t>
+  </si>
+  <si>
+    <t>Are there hyper attenuating material along the aortic walls?</t>
+  </si>
+  <si>
+    <t>are there calcifications present on the abdominal aorta?</t>
+  </si>
+  <si>
+    <t>Is/Are there hyper attenuating material in the patient's aorta?</t>
+  </si>
+  <si>
+    <t>Is/Are there calcifications in the patient's aorta?</t>
+  </si>
+  <si>
+    <t>Is the vertebro-basilar arterial network viewed in this section?</t>
+  </si>
+  <si>
+    <t>Is the vertebral artery/basilar artery located in this image?</t>
+  </si>
+  <si>
+    <t>Is/Are there vertebral/basilar artery?</t>
+  </si>
+  <si>
+    <t>Is there blurring of the grey-white matter junctions in the right temporal lobe?</t>
+  </si>
+  <si>
+    <t>Is there no definitive border between the grey matter and white matter in the right temporal lobe?</t>
+  </si>
+  <si>
+    <t>Is/Are there blurring of the grey-white matter in the patient's right temporal lobe?</t>
+  </si>
+  <si>
+    <t>is there evidence of portal venous congestion?</t>
+  </si>
+  <si>
+    <t>Is the portal vein engorged?</t>
+  </si>
+  <si>
+    <t>Is/Are there portal venous congestion?</t>
+  </si>
+  <si>
+    <t>is the plane of section transverse?</t>
+  </si>
+  <si>
+    <t>Is the liver parenchyma normal?</t>
+  </si>
+  <si>
+    <t>Is the liver parenchyma homogenous and normal?</t>
+  </si>
+  <si>
+    <t>Is/Are the liver parenchyma normal?</t>
+  </si>
+  <si>
+    <t>Is the liver parenchyma homogenous?</t>
+  </si>
+  <si>
+    <t>Is/Are the liver parenchyma homogenous??</t>
+  </si>
+  <si>
+    <t>Is there no evidence of any hypo- or hyperattenuations located in the liver?</t>
+  </si>
+  <si>
+    <t>PRES, ABN</t>
+  </si>
+  <si>
+    <t>was this chest x ray taken in PA format?</t>
+  </si>
+  <si>
+    <t>Is the stomach thickening regular and uniform or ragged/asymmetrical?</t>
+  </si>
+  <si>
+    <t>Is the stomach wall thickening symmetric or asymmetric?</t>
+  </si>
+  <si>
+    <t>How would you describe the stomach wall thickening?</t>
+  </si>
+  <si>
+    <t>Asymmetric</t>
+  </si>
+  <si>
+    <t>Is there evidence of ectopic tissue present in surrounding organs?</t>
+  </si>
+  <si>
+    <t>Is there evidence of metastatic tissue on organs surrounding the liver?</t>
+  </si>
+  <si>
+    <t>Is there metastatic tissue in the surrounding organs?</t>
+  </si>
+  <si>
+    <t>Is there metastatic tissue in the liver?</t>
+  </si>
+  <si>
+    <t>Are lung opacities noted?</t>
+  </si>
+  <si>
+    <t>is there evidence of intraparenchymal lung nodules?</t>
+  </si>
+  <si>
+    <t>Is/Are there nodules in the patient's lung?</t>
+  </si>
+  <si>
+    <t>HEAD</t>
+  </si>
+  <si>
+    <t>CHEST</t>
+  </si>
+  <si>
+    <t>ABD</t>
   </si>
 </sst>
 </file>
@@ -1329,10 +1866,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N102"/>
+  <dimension ref="A1:V103"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H18" workbookViewId="0">
-      <selection activeCell="N28" sqref="N28:N101"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="V1" sqref="V1:V103"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1352,7 +1889,7 @@
     <col min="13" max="13" width="17.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1369,13 +1906,13 @@
         <v>4</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>5</v>
+        <v>317</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>6</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>7</v>
+        <v>316</v>
       </c>
       <c r="I1" s="1" t="s">
         <v>8</v>
@@ -1390,13 +1927,37 @@
         <v>11</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>12</v>
+        <v>318</v>
       </c>
       <c r="N1" s="1" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="T1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="U1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="V1" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -1439,8 +2000,32 @@
       <c r="N2" s="5" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O2" s="1" t="s">
+        <v>319</v>
+      </c>
+      <c r="P2" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="Q2" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="R2" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="S2" s="1" t="s">
+        <v>320</v>
+      </c>
+      <c r="T2" s="1" t="s">
+        <v>321</v>
+      </c>
+      <c r="U2" s="1" t="s">
+        <v>322</v>
+      </c>
+      <c r="V2" s="4" t="s">
+        <v>492</v>
+      </c>
+    </row>
+    <row r="3" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -1483,8 +2068,32 @@
       <c r="N3" s="5" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O3" s="1" t="s">
+        <v>323</v>
+      </c>
+      <c r="P3" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="Q3" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="R3" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="S3" s="1" t="s">
+        <v>324</v>
+      </c>
+      <c r="T3" s="1" t="s">
+        <v>325</v>
+      </c>
+      <c r="U3" s="1" t="s">
+        <v>322</v>
+      </c>
+      <c r="V3" s="4" t="s">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="4" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -1527,8 +2136,32 @@
       <c r="N4" s="5" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="5" spans="1:14" ht="27.6" x14ac:dyDescent="0.3">
+      <c r="O4" s="1" t="s">
+        <v>326</v>
+      </c>
+      <c r="P4" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="Q4" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="R4" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="S4" s="1" t="s">
+        <v>320</v>
+      </c>
+      <c r="T4" s="1" t="s">
+        <v>325</v>
+      </c>
+      <c r="U4" s="1" t="s">
+        <v>322</v>
+      </c>
+      <c r="V4" s="4" t="s">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="5" spans="1:22" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -1571,8 +2204,32 @@
       <c r="N5" s="5" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="6" spans="1:14" ht="27.6" x14ac:dyDescent="0.3">
+      <c r="O5" s="1" t="s">
+        <v>327</v>
+      </c>
+      <c r="P5" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="Q5" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="R5" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="S5" s="1" t="s">
+        <v>328</v>
+      </c>
+      <c r="T5" s="1" t="s">
+        <v>329</v>
+      </c>
+      <c r="U5" s="1" t="s">
+        <v>330</v>
+      </c>
+      <c r="V5" s="4" t="s">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="6" spans="1:22" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -1615,8 +2272,32 @@
       <c r="N6" s="5" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O6" s="1" t="s">
+        <v>331</v>
+      </c>
+      <c r="P6" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="Q6" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="R6" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="S6" s="1" t="s">
+        <v>328</v>
+      </c>
+      <c r="T6" s="1" t="s">
+        <v>332</v>
+      </c>
+      <c r="U6" s="1" t="s">
+        <v>322</v>
+      </c>
+      <c r="V6" s="4" t="s">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="7" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -1659,8 +2340,32 @@
       <c r="N7" s="5" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O7" s="1" t="s">
+        <v>333</v>
+      </c>
+      <c r="P7" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="Q7" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="R7" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="S7" s="1" t="s">
+        <v>334</v>
+      </c>
+      <c r="T7" s="1" t="s">
+        <v>335</v>
+      </c>
+      <c r="U7" s="1" t="s">
+        <v>330</v>
+      </c>
+      <c r="V7" s="4" t="s">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="8" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -1703,8 +2408,32 @@
       <c r="N8" s="5" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O8" s="1" t="s">
+        <v>336</v>
+      </c>
+      <c r="P8" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="Q8" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="R8" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="S8" s="1" t="s">
+        <v>320</v>
+      </c>
+      <c r="T8" s="1" t="s">
+        <v>337</v>
+      </c>
+      <c r="U8" s="1" t="s">
+        <v>322</v>
+      </c>
+      <c r="V8" s="4" t="s">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="9" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -1747,8 +2476,32 @@
       <c r="N9" s="5" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O9" s="1" t="s">
+        <v>338</v>
+      </c>
+      <c r="P9" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="Q9" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="R9" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="S9" s="1" t="s">
+        <v>320</v>
+      </c>
+      <c r="T9" s="1" t="s">
+        <v>325</v>
+      </c>
+      <c r="U9" s="1" t="s">
+        <v>322</v>
+      </c>
+      <c r="V9" s="4" t="s">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="10" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -1791,8 +2544,32 @@
       <c r="N10" t="s">
         <v>104</v>
       </c>
-    </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O10" s="1" t="s">
+        <v>339</v>
+      </c>
+      <c r="P10" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="Q10" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="R10" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="S10" s="1" t="s">
+        <v>340</v>
+      </c>
+      <c r="T10" s="1" t="s">
+        <v>341</v>
+      </c>
+      <c r="U10" s="1" t="s">
+        <v>330</v>
+      </c>
+      <c r="V10" s="4" t="s">
+        <v>492</v>
+      </c>
+    </row>
+    <row r="11" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -1835,8 +2612,32 @@
       <c r="N11" t="s">
         <v>105</v>
       </c>
-    </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O11" s="1" t="s">
+        <v>342</v>
+      </c>
+      <c r="P11" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="Q11" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="R11" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="S11" s="1" t="s">
+        <v>320</v>
+      </c>
+      <c r="T11" s="1" t="s">
+        <v>325</v>
+      </c>
+      <c r="U11" s="1" t="s">
+        <v>322</v>
+      </c>
+      <c r="V11" s="4" t="s">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="12" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -1879,8 +2680,32 @@
       <c r="N12" t="s">
         <v>105</v>
       </c>
-    </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O12" s="1" t="s">
+        <v>338</v>
+      </c>
+      <c r="P12" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="Q12" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="R12" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="S12" s="1" t="s">
+        <v>320</v>
+      </c>
+      <c r="T12" s="1" t="s">
+        <v>337</v>
+      </c>
+      <c r="U12" s="1" t="s">
+        <v>322</v>
+      </c>
+      <c r="V12" s="4" t="s">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="13" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -1923,8 +2748,32 @@
       <c r="N13" t="s">
         <v>104</v>
       </c>
-    </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O13" s="1" t="s">
+        <v>343</v>
+      </c>
+      <c r="P13" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="Q13" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="R13" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="S13" s="1" t="s">
+        <v>334</v>
+      </c>
+      <c r="T13" s="1" t="s">
+        <v>344</v>
+      </c>
+      <c r="U13" s="1" t="s">
+        <v>330</v>
+      </c>
+      <c r="V13" s="4" t="s">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="14" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -1967,8 +2816,32 @@
       <c r="N14" t="s">
         <v>105</v>
       </c>
-    </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O14" s="1" t="s">
+        <v>345</v>
+      </c>
+      <c r="P14" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="Q14" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="R14" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="S14" s="1" t="s">
+        <v>320</v>
+      </c>
+      <c r="T14" s="1" t="s">
+        <v>321</v>
+      </c>
+      <c r="U14" s="1" t="s">
+        <v>322</v>
+      </c>
+      <c r="V14" s="4" t="s">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="15" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -2011,8 +2884,32 @@
       <c r="N15" t="s">
         <v>105</v>
       </c>
-    </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O15" s="1" t="s">
+        <v>346</v>
+      </c>
+      <c r="P15" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="Q15" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="R15" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="S15" s="1" t="s">
+        <v>347</v>
+      </c>
+      <c r="T15" s="1" t="s">
+        <v>337</v>
+      </c>
+      <c r="U15" s="1" t="s">
+        <v>322</v>
+      </c>
+      <c r="V15" s="4" t="s">
+        <v>492</v>
+      </c>
+    </row>
+    <row r="16" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -2055,8 +2952,32 @@
       <c r="N16" t="s">
         <v>104</v>
       </c>
-    </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O16" s="1" t="s">
+        <v>348</v>
+      </c>
+      <c r="P16" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="Q16" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="R16" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="S16" s="1" t="s">
+        <v>340</v>
+      </c>
+      <c r="T16" s="1" t="s">
+        <v>349</v>
+      </c>
+      <c r="U16" s="1" t="s">
+        <v>330</v>
+      </c>
+      <c r="V16" s="4" t="s">
+        <v>492</v>
+      </c>
+    </row>
+    <row r="17" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -2099,8 +3020,32 @@
       <c r="N17" t="s">
         <v>105</v>
       </c>
-    </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O17" s="1" t="s">
+        <v>350</v>
+      </c>
+      <c r="P17" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="Q17" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="R17" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="S17" s="1" t="s">
+        <v>320</v>
+      </c>
+      <c r="T17" s="1" t="s">
+        <v>332</v>
+      </c>
+      <c r="U17" s="1" t="s">
+        <v>322</v>
+      </c>
+      <c r="V17" s="4" t="s">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="18" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -2143,8 +3088,32 @@
       <c r="N18" t="s">
         <v>104</v>
       </c>
-    </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O18" s="1" t="s">
+        <v>351</v>
+      </c>
+      <c r="P18" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="Q18" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="R18" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="S18" s="1" t="s">
+        <v>328</v>
+      </c>
+      <c r="T18" s="1" t="s">
+        <v>352</v>
+      </c>
+      <c r="U18" s="1" t="s">
+        <v>330</v>
+      </c>
+      <c r="V18" s="4" t="s">
+        <v>492</v>
+      </c>
+    </row>
+    <row r="19" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -2187,8 +3156,32 @@
       <c r="N19" t="s">
         <v>104</v>
       </c>
-    </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O19" s="1" t="s">
+        <v>353</v>
+      </c>
+      <c r="P19" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="Q19" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="R19" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="S19" s="1" t="s">
+        <v>334</v>
+      </c>
+      <c r="T19" s="1" t="s">
+        <v>354</v>
+      </c>
+      <c r="U19" s="1" t="s">
+        <v>330</v>
+      </c>
+      <c r="V19" s="4" t="s">
+        <v>492</v>
+      </c>
+    </row>
+    <row r="20" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -2231,8 +3224,32 @@
       <c r="N20" t="s">
         <v>105</v>
       </c>
-    </row>
-    <row r="21" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O20" s="1" t="s">
+        <v>355</v>
+      </c>
+      <c r="P20" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="Q20" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="R20" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="S20" s="1" t="s">
+        <v>320</v>
+      </c>
+      <c r="T20" s="1" t="s">
+        <v>332</v>
+      </c>
+      <c r="U20" s="1" t="s">
+        <v>322</v>
+      </c>
+      <c r="V20" s="4" t="s">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="21" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -2275,8 +3292,32 @@
       <c r="N21" t="s">
         <v>104</v>
       </c>
-    </row>
-    <row r="22" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O21" s="1" t="s">
+        <v>356</v>
+      </c>
+      <c r="P21" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="Q21" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="R21" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="S21" s="1" t="s">
+        <v>357</v>
+      </c>
+      <c r="T21" s="1" t="s">
+        <v>358</v>
+      </c>
+      <c r="U21" s="1" t="s">
+        <v>330</v>
+      </c>
+      <c r="V21" s="4" t="s">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="22" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -2319,8 +3360,32 @@
       <c r="N22" t="s">
         <v>105</v>
       </c>
-    </row>
-    <row r="23" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O22" s="1" t="s">
+        <v>359</v>
+      </c>
+      <c r="P22" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="Q22" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="R22" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="S22" s="1" t="s">
+        <v>360</v>
+      </c>
+      <c r="T22" s="1" t="s">
+        <v>337</v>
+      </c>
+      <c r="U22" s="1" t="s">
+        <v>322</v>
+      </c>
+      <c r="V22" s="4" t="s">
+        <v>492</v>
+      </c>
+    </row>
+    <row r="23" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -2363,8 +3428,32 @@
       <c r="N23" t="s">
         <v>105</v>
       </c>
-    </row>
-    <row r="24" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O23" s="1" t="s">
+        <v>361</v>
+      </c>
+      <c r="P23" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="Q23" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="R23" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="S23" s="1" t="s">
+        <v>324</v>
+      </c>
+      <c r="T23" s="1" t="s">
+        <v>337</v>
+      </c>
+      <c r="U23" s="1" t="s">
+        <v>322</v>
+      </c>
+      <c r="V23" s="4" t="s">
+        <v>492</v>
+      </c>
+    </row>
+    <row r="24" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -2407,8 +3496,32 @@
       <c r="N24" t="s">
         <v>105</v>
       </c>
-    </row>
-    <row r="25" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O24" s="1" t="s">
+        <v>362</v>
+      </c>
+      <c r="P24" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="Q24" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="R24" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="S24" s="1" t="s">
+        <v>347</v>
+      </c>
+      <c r="T24" s="1" t="s">
+        <v>332</v>
+      </c>
+      <c r="U24" s="1" t="s">
+        <v>322</v>
+      </c>
+      <c r="V24" s="4" t="s">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="25" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -2451,8 +3564,32 @@
       <c r="N25" t="s">
         <v>105</v>
       </c>
-    </row>
-    <row r="26" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O25" s="1" t="s">
+        <v>363</v>
+      </c>
+      <c r="P25" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="Q25" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="R25" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="S25" s="1" t="s">
+        <v>364</v>
+      </c>
+      <c r="T25" s="1" t="s">
+        <v>337</v>
+      </c>
+      <c r="U25" s="1" t="s">
+        <v>322</v>
+      </c>
+      <c r="V25" s="4" t="s">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="26" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A26" s="1">
         <v>24</v>
       </c>
@@ -2495,8 +3632,32 @@
       <c r="N26" t="s">
         <v>105</v>
       </c>
-    </row>
-    <row r="27" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O26" s="1" t="s">
+        <v>365</v>
+      </c>
+      <c r="P26" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="Q26" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="R26" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="S26" s="1" t="s">
+        <v>334</v>
+      </c>
+      <c r="T26" s="1" t="s">
+        <v>337</v>
+      </c>
+      <c r="U26" s="1" t="s">
+        <v>322</v>
+      </c>
+      <c r="V26" s="4" t="s">
+        <v>492</v>
+      </c>
+    </row>
+    <row r="27" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A27" s="1">
         <v>25</v>
       </c>
@@ -2539,8 +3700,32 @@
       <c r="N27" t="s">
         <v>105</v>
       </c>
-    </row>
-    <row r="28" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O27" s="1" t="s">
+        <v>366</v>
+      </c>
+      <c r="P27" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="Q27" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="R27" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="S27" s="1" t="s">
+        <v>320</v>
+      </c>
+      <c r="T27" s="1" t="s">
+        <v>325</v>
+      </c>
+      <c r="U27" s="1" t="s">
+        <v>322</v>
+      </c>
+      <c r="V27" s="4" t="s">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="28" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A28" s="1">
         <v>26</v>
       </c>
@@ -2583,8 +3768,32 @@
       <c r="N28" t="s">
         <v>104</v>
       </c>
-    </row>
-    <row r="29" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O28" s="1" t="s">
+        <v>367</v>
+      </c>
+      <c r="P28" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="Q28" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="R28" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="S28" s="1" t="s">
+        <v>328</v>
+      </c>
+      <c r="T28" s="1" t="s">
+        <v>368</v>
+      </c>
+      <c r="U28" s="1" t="s">
+        <v>330</v>
+      </c>
+      <c r="V28" s="4" t="s">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="29" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A29" s="1">
         <v>27</v>
       </c>
@@ -2627,8 +3836,32 @@
       <c r="N29" t="s">
         <v>105</v>
       </c>
-    </row>
-    <row r="30" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O29" s="1" t="s">
+        <v>369</v>
+      </c>
+      <c r="P29" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="Q29" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="R29" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="S29" s="1" t="s">
+        <v>328</v>
+      </c>
+      <c r="T29" s="1" t="s">
+        <v>332</v>
+      </c>
+      <c r="U29" s="1" t="s">
+        <v>322</v>
+      </c>
+      <c r="V29" s="4" t="s">
+        <v>492</v>
+      </c>
+    </row>
+    <row r="30" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A30" s="1">
         <v>28</v>
       </c>
@@ -2671,8 +3904,32 @@
       <c r="N30" t="s">
         <v>105</v>
       </c>
-    </row>
-    <row r="31" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O30" s="1" t="s">
+        <v>370</v>
+      </c>
+      <c r="P30" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="Q30" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="R30" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="S30" s="1" t="s">
+        <v>347</v>
+      </c>
+      <c r="T30" s="1" t="s">
+        <v>332</v>
+      </c>
+      <c r="U30" s="1" t="s">
+        <v>322</v>
+      </c>
+      <c r="V30" s="4" t="s">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="31" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A31" s="1">
         <v>29</v>
       </c>
@@ -2715,8 +3972,32 @@
       <c r="N31" t="s">
         <v>104</v>
       </c>
-    </row>
-    <row r="32" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O31" s="1" t="s">
+        <v>371</v>
+      </c>
+      <c r="P31" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="Q31" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="R31" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="S31" s="1" t="s">
+        <v>347</v>
+      </c>
+      <c r="T31" s="1" t="s">
+        <v>372</v>
+      </c>
+      <c r="U31" s="1" t="s">
+        <v>330</v>
+      </c>
+      <c r="V31" s="4" t="s">
+        <v>492</v>
+      </c>
+    </row>
+    <row r="32" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A32" s="1">
         <v>30</v>
       </c>
@@ -2759,8 +4040,32 @@
       <c r="N32" t="s">
         <v>105</v>
       </c>
-    </row>
-    <row r="33" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O32" s="1" t="s">
+        <v>373</v>
+      </c>
+      <c r="P32" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="Q32" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="R32" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="S32" s="1" t="s">
+        <v>320</v>
+      </c>
+      <c r="T32" s="1" t="s">
+        <v>325</v>
+      </c>
+      <c r="U32" s="1" t="s">
+        <v>322</v>
+      </c>
+      <c r="V32" s="4" t="s">
+        <v>492</v>
+      </c>
+    </row>
+    <row r="33" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A33" s="1">
         <v>31</v>
       </c>
@@ -2803,8 +4108,32 @@
       <c r="N33" t="s">
         <v>105</v>
       </c>
-    </row>
-    <row r="34" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O33" s="1" t="s">
+        <v>374</v>
+      </c>
+      <c r="P33" s="1" t="s">
+        <v>375</v>
+      </c>
+      <c r="Q33" s="1" t="s">
+        <v>376</v>
+      </c>
+      <c r="R33" s="1" t="s">
+        <v>377</v>
+      </c>
+      <c r="S33" s="1" t="s">
+        <v>378</v>
+      </c>
+      <c r="T33" s="1" t="s">
+        <v>321</v>
+      </c>
+      <c r="U33" s="1" t="s">
+        <v>322</v>
+      </c>
+      <c r="V33" s="4" t="s">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="34" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A34" s="1">
         <v>32</v>
       </c>
@@ -2847,8 +4176,32 @@
       <c r="N34" t="s">
         <v>105</v>
       </c>
-    </row>
-    <row r="35" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O34" s="1" t="s">
+        <v>375</v>
+      </c>
+      <c r="P34" s="1" t="s">
+        <v>374</v>
+      </c>
+      <c r="Q34" s="1" t="s">
+        <v>376</v>
+      </c>
+      <c r="R34" s="1" t="s">
+        <v>379</v>
+      </c>
+      <c r="S34" s="1" t="s">
+        <v>364</v>
+      </c>
+      <c r="T34" s="1" t="s">
+        <v>321</v>
+      </c>
+      <c r="U34" s="1" t="s">
+        <v>322</v>
+      </c>
+      <c r="V34" s="4" t="s">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="35" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A35" s="1">
         <v>33</v>
       </c>
@@ -2891,8 +4244,32 @@
       <c r="N35" t="s">
         <v>105</v>
       </c>
-    </row>
-    <row r="36" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O35" s="1" t="s">
+        <v>380</v>
+      </c>
+      <c r="P35" s="1" t="s">
+        <v>381</v>
+      </c>
+      <c r="Q35" s="1" t="s">
+        <v>376</v>
+      </c>
+      <c r="R35" s="1" t="s">
+        <v>382</v>
+      </c>
+      <c r="S35" s="1" t="s">
+        <v>320</v>
+      </c>
+      <c r="T35" s="1" t="s">
+        <v>325</v>
+      </c>
+      <c r="U35" s="1" t="s">
+        <v>322</v>
+      </c>
+      <c r="V35" s="4" t="s">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="36" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A36" s="1">
         <v>34</v>
       </c>
@@ -2935,8 +4312,32 @@
       <c r="N36" t="s">
         <v>105</v>
       </c>
-    </row>
-    <row r="37" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O36" s="1" t="s">
+        <v>381</v>
+      </c>
+      <c r="P36" s="1" t="s">
+        <v>380</v>
+      </c>
+      <c r="Q36" s="1" t="s">
+        <v>376</v>
+      </c>
+      <c r="R36" s="1" t="s">
+        <v>383</v>
+      </c>
+      <c r="S36" s="1" t="s">
+        <v>320</v>
+      </c>
+      <c r="T36" s="1" t="s">
+        <v>325</v>
+      </c>
+      <c r="U36" s="1" t="s">
+        <v>322</v>
+      </c>
+      <c r="V36" s="4" t="s">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="37" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A37" s="1">
         <v>35</v>
       </c>
@@ -2979,8 +4380,32 @@
       <c r="N37" t="s">
         <v>105</v>
       </c>
-    </row>
-    <row r="38" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O37" s="1" t="s">
+        <v>384</v>
+      </c>
+      <c r="P37" s="1" t="s">
+        <v>385</v>
+      </c>
+      <c r="Q37" s="1" t="s">
+        <v>376</v>
+      </c>
+      <c r="R37" s="1" t="s">
+        <v>386</v>
+      </c>
+      <c r="S37" s="1" t="s">
+        <v>324</v>
+      </c>
+      <c r="T37" s="1" t="s">
+        <v>325</v>
+      </c>
+      <c r="U37" s="1" t="s">
+        <v>322</v>
+      </c>
+      <c r="V37" s="4" t="s">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="38" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A38" s="1">
         <v>36</v>
       </c>
@@ -3023,8 +4448,32 @@
       <c r="N38" t="s">
         <v>105</v>
       </c>
-    </row>
-    <row r="39" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O38" s="1" t="s">
+        <v>385</v>
+      </c>
+      <c r="P38" s="1" t="s">
+        <v>384</v>
+      </c>
+      <c r="Q38" s="1" t="s">
+        <v>376</v>
+      </c>
+      <c r="R38" s="1" t="s">
+        <v>386</v>
+      </c>
+      <c r="S38" s="1" t="s">
+        <v>324</v>
+      </c>
+      <c r="T38" s="1" t="s">
+        <v>325</v>
+      </c>
+      <c r="U38" s="1" t="s">
+        <v>322</v>
+      </c>
+      <c r="V38" s="4" t="s">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="39" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A39" s="1">
         <v>37</v>
       </c>
@@ -3067,8 +4516,32 @@
       <c r="N39" t="s">
         <v>105</v>
       </c>
-    </row>
-    <row r="40" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O39" s="1" t="s">
+        <v>387</v>
+      </c>
+      <c r="P39" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="Q39" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="R39" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="S39" s="1" t="s">
+        <v>328</v>
+      </c>
+      <c r="T39" s="1" t="s">
+        <v>337</v>
+      </c>
+      <c r="U39" s="1" t="s">
+        <v>322</v>
+      </c>
+      <c r="V39" s="4" t="s">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="40" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A40" s="1">
         <v>38</v>
       </c>
@@ -3111,8 +4584,32 @@
       <c r="N40" t="s">
         <v>105</v>
       </c>
-    </row>
-    <row r="41" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O40" s="1" t="s">
+        <v>388</v>
+      </c>
+      <c r="P40" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="Q40" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="R40" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="S40" s="1" t="s">
+        <v>347</v>
+      </c>
+      <c r="T40" s="1" t="s">
+        <v>337</v>
+      </c>
+      <c r="U40" s="1" t="s">
+        <v>322</v>
+      </c>
+      <c r="V40" s="4" t="s">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="41" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A41" s="1">
         <v>39</v>
       </c>
@@ -3155,8 +4652,32 @@
       <c r="N41" t="s">
         <v>105</v>
       </c>
-    </row>
-    <row r="42" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O41" s="1" t="s">
+        <v>389</v>
+      </c>
+      <c r="P41" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="Q41" s="1" t="s">
+        <v>390</v>
+      </c>
+      <c r="R41" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="S41" s="1" t="s">
+        <v>320</v>
+      </c>
+      <c r="T41" s="1" t="s">
+        <v>321</v>
+      </c>
+      <c r="U41" s="1" t="s">
+        <v>322</v>
+      </c>
+      <c r="V41" s="4" t="s">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="42" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A42" s="1">
         <v>40</v>
       </c>
@@ -3199,8 +4720,32 @@
       <c r="N42" t="s">
         <v>105</v>
       </c>
-    </row>
-    <row r="43" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O42" s="1" t="s">
+        <v>391</v>
+      </c>
+      <c r="P42" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="Q42" s="1" t="s">
+        <v>390</v>
+      </c>
+      <c r="R42" s="1" t="s">
+        <v>392</v>
+      </c>
+      <c r="S42" s="1" t="s">
+        <v>360</v>
+      </c>
+      <c r="T42" s="1" t="s">
+        <v>321</v>
+      </c>
+      <c r="U42" s="1" t="s">
+        <v>322</v>
+      </c>
+      <c r="V42" s="4" t="s">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="43" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A43" s="1">
         <v>41</v>
       </c>
@@ -3243,8 +4788,32 @@
       <c r="N43" t="s">
         <v>105</v>
       </c>
-    </row>
-    <row r="44" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O43" s="1" t="s">
+        <v>393</v>
+      </c>
+      <c r="P43" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="Q43" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="R43" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="S43" s="1" t="s">
+        <v>357</v>
+      </c>
+      <c r="T43" s="1" t="s">
+        <v>337</v>
+      </c>
+      <c r="U43" s="1" t="s">
+        <v>322</v>
+      </c>
+      <c r="V43" s="4" t="s">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="44" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A44" s="1">
         <v>42</v>
       </c>
@@ -3287,8 +4856,32 @@
       <c r="N44" t="s">
         <v>105</v>
       </c>
-    </row>
-    <row r="45" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O44" s="1" t="s">
+        <v>394</v>
+      </c>
+      <c r="P44" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="Q44" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="R44" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="S44" s="1" t="s">
+        <v>328</v>
+      </c>
+      <c r="T44" s="1" t="s">
+        <v>337</v>
+      </c>
+      <c r="U44" s="1" t="s">
+        <v>322</v>
+      </c>
+      <c r="V44" s="4" t="s">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="45" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A45" s="1">
         <v>43</v>
       </c>
@@ -3331,8 +4924,32 @@
       <c r="N45" t="s">
         <v>105</v>
       </c>
-    </row>
-    <row r="46" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O45" s="1" t="s">
+        <v>395</v>
+      </c>
+      <c r="P45" s="1" t="s">
+        <v>396</v>
+      </c>
+      <c r="Q45" s="1" t="s">
+        <v>376</v>
+      </c>
+      <c r="R45" s="1" t="s">
+        <v>397</v>
+      </c>
+      <c r="S45" s="1" t="s">
+        <v>320</v>
+      </c>
+      <c r="T45" s="1" t="s">
+        <v>321</v>
+      </c>
+      <c r="U45" s="1" t="s">
+        <v>322</v>
+      </c>
+      <c r="V45" s="4" t="s">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="46" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A46" s="1">
         <v>44</v>
       </c>
@@ -3375,8 +4992,32 @@
       <c r="N46" t="s">
         <v>105</v>
       </c>
-    </row>
-    <row r="47" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O46" s="1" t="s">
+        <v>396</v>
+      </c>
+      <c r="P46" s="1" t="s">
+        <v>395</v>
+      </c>
+      <c r="Q46" s="1" t="s">
+        <v>376</v>
+      </c>
+      <c r="R46" s="1" t="s">
+        <v>398</v>
+      </c>
+      <c r="S46" s="1" t="s">
+        <v>320</v>
+      </c>
+      <c r="T46" s="1" t="s">
+        <v>321</v>
+      </c>
+      <c r="U46" s="1" t="s">
+        <v>322</v>
+      </c>
+      <c r="V46" s="4" t="s">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="47" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A47" s="1">
         <v>45</v>
       </c>
@@ -3419,8 +5060,32 @@
       <c r="N47" t="s">
         <v>105</v>
       </c>
-    </row>
-    <row r="48" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O47" s="1" t="s">
+        <v>399</v>
+      </c>
+      <c r="P47" s="1" t="s">
+        <v>400</v>
+      </c>
+      <c r="Q47" s="1" t="s">
+        <v>376</v>
+      </c>
+      <c r="R47" s="1" t="s">
+        <v>401</v>
+      </c>
+      <c r="S47" s="1" t="s">
+        <v>364</v>
+      </c>
+      <c r="T47" s="1" t="s">
+        <v>321</v>
+      </c>
+      <c r="U47" s="1" t="s">
+        <v>322</v>
+      </c>
+      <c r="V47" s="4" t="s">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="48" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A48" s="1">
         <v>46</v>
       </c>
@@ -3463,8 +5128,32 @@
       <c r="N48" t="s">
         <v>105</v>
       </c>
-    </row>
-    <row r="49" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O48" s="1" t="s">
+        <v>400</v>
+      </c>
+      <c r="P48" s="1" t="s">
+        <v>399</v>
+      </c>
+      <c r="Q48" s="1" t="s">
+        <v>376</v>
+      </c>
+      <c r="R48" s="1" t="s">
+        <v>401</v>
+      </c>
+      <c r="S48" s="1" t="s">
+        <v>364</v>
+      </c>
+      <c r="T48" s="1" t="s">
+        <v>321</v>
+      </c>
+      <c r="U48" s="1" t="s">
+        <v>322</v>
+      </c>
+      <c r="V48" s="4" t="s">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="49" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A49" s="1">
         <v>47</v>
       </c>
@@ -3507,8 +5196,32 @@
       <c r="N49" t="s">
         <v>105</v>
       </c>
-    </row>
-    <row r="50" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O49" s="1" t="s">
+        <v>402</v>
+      </c>
+      <c r="P49" s="1" t="s">
+        <v>403</v>
+      </c>
+      <c r="Q49" s="1" t="s">
+        <v>376</v>
+      </c>
+      <c r="R49" s="1" t="s">
+        <v>404</v>
+      </c>
+      <c r="S49" s="1" t="s">
+        <v>320</v>
+      </c>
+      <c r="T49" s="1" t="s">
+        <v>337</v>
+      </c>
+      <c r="U49" s="1" t="s">
+        <v>322</v>
+      </c>
+      <c r="V49" s="4" t="s">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="50" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A50" s="1">
         <v>48</v>
       </c>
@@ -3551,8 +5264,32 @@
       <c r="N50" t="s">
         <v>105</v>
       </c>
-    </row>
-    <row r="51" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O50" s="1" t="s">
+        <v>403</v>
+      </c>
+      <c r="P50" s="1" t="s">
+        <v>402</v>
+      </c>
+      <c r="Q50" s="1" t="s">
+        <v>376</v>
+      </c>
+      <c r="R50" s="1" t="s">
+        <v>404</v>
+      </c>
+      <c r="S50" s="1" t="s">
+        <v>320</v>
+      </c>
+      <c r="T50" s="1" t="s">
+        <v>337</v>
+      </c>
+      <c r="U50" s="1" t="s">
+        <v>322</v>
+      </c>
+      <c r="V50" s="4" t="s">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="51" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A51" s="1">
         <v>49</v>
       </c>
@@ -3595,8 +5332,32 @@
       <c r="N51" t="s">
         <v>105</v>
       </c>
-    </row>
-    <row r="52" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O51" s="1" t="s">
+        <v>405</v>
+      </c>
+      <c r="P51" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="Q51" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="R51" s="1" t="s">
+        <v>405</v>
+      </c>
+      <c r="S51" s="1" t="s">
+        <v>340</v>
+      </c>
+      <c r="T51" s="1" t="s">
+        <v>321</v>
+      </c>
+      <c r="U51" s="1" t="s">
+        <v>322</v>
+      </c>
+      <c r="V51" s="4" t="s">
+        <v>492</v>
+      </c>
+    </row>
+    <row r="52" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A52" s="1">
         <v>50</v>
       </c>
@@ -3639,8 +5400,32 @@
       <c r="N52" t="s">
         <v>105</v>
       </c>
-    </row>
-    <row r="53" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O52" s="1" t="s">
+        <v>406</v>
+      </c>
+      <c r="P52" s="1" t="s">
+        <v>407</v>
+      </c>
+      <c r="Q52" s="1" t="s">
+        <v>376</v>
+      </c>
+      <c r="R52" s="1" t="s">
+        <v>408</v>
+      </c>
+      <c r="S52" s="1" t="s">
+        <v>320</v>
+      </c>
+      <c r="T52" s="1" t="s">
+        <v>321</v>
+      </c>
+      <c r="U52" s="1" t="s">
+        <v>322</v>
+      </c>
+      <c r="V52" s="4" t="s">
+        <v>492</v>
+      </c>
+    </row>
+    <row r="53" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A53" s="1">
         <v>51</v>
       </c>
@@ -3683,8 +5468,32 @@
       <c r="N53" t="s">
         <v>105</v>
       </c>
-    </row>
-    <row r="54" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O53" s="1" t="s">
+        <v>407</v>
+      </c>
+      <c r="P53" s="1" t="s">
+        <v>406</v>
+      </c>
+      <c r="Q53" s="1" t="s">
+        <v>376</v>
+      </c>
+      <c r="R53" s="1" t="s">
+        <v>408</v>
+      </c>
+      <c r="S53" s="1" t="s">
+        <v>320</v>
+      </c>
+      <c r="T53" s="1" t="s">
+        <v>321</v>
+      </c>
+      <c r="U53" s="1" t="s">
+        <v>322</v>
+      </c>
+      <c r="V53" s="4" t="s">
+        <v>492</v>
+      </c>
+    </row>
+    <row r="54" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A54" s="1">
         <v>52</v>
       </c>
@@ -3727,8 +5536,32 @@
       <c r="N54" t="s">
         <v>105</v>
       </c>
-    </row>
-    <row r="55" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O54" s="1" t="s">
+        <v>409</v>
+      </c>
+      <c r="P54" s="1" t="s">
+        <v>410</v>
+      </c>
+      <c r="Q54" s="1" t="s">
+        <v>376</v>
+      </c>
+      <c r="R54" s="1" t="s">
+        <v>411</v>
+      </c>
+      <c r="S54" s="1" t="s">
+        <v>320</v>
+      </c>
+      <c r="T54" s="1" t="s">
+        <v>332</v>
+      </c>
+      <c r="U54" s="1" t="s">
+        <v>322</v>
+      </c>
+      <c r="V54" s="4" t="s">
+        <v>492</v>
+      </c>
+    </row>
+    <row r="55" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A55" s="1">
         <v>53</v>
       </c>
@@ -3771,8 +5604,32 @@
       <c r="N55" t="s">
         <v>105</v>
       </c>
-    </row>
-    <row r="56" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O55" s="1" t="s">
+        <v>410</v>
+      </c>
+      <c r="P55" s="1" t="s">
+        <v>409</v>
+      </c>
+      <c r="Q55" s="1" t="s">
+        <v>376</v>
+      </c>
+      <c r="R55" s="1" t="s">
+        <v>411</v>
+      </c>
+      <c r="S55" s="1" t="s">
+        <v>320</v>
+      </c>
+      <c r="T55" s="1" t="s">
+        <v>332</v>
+      </c>
+      <c r="U55" s="1" t="s">
+        <v>322</v>
+      </c>
+      <c r="V55" s="4" t="s">
+        <v>492</v>
+      </c>
+    </row>
+    <row r="56" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A56" s="1">
         <v>54</v>
       </c>
@@ -3815,8 +5672,32 @@
       <c r="N56" t="s">
         <v>105</v>
       </c>
-    </row>
-    <row r="57" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O56" s="1" t="s">
+        <v>412</v>
+      </c>
+      <c r="P56" s="1" t="s">
+        <v>413</v>
+      </c>
+      <c r="Q56" s="1" t="s">
+        <v>376</v>
+      </c>
+      <c r="R56" s="1" t="s">
+        <v>414</v>
+      </c>
+      <c r="S56" s="1" t="s">
+        <v>364</v>
+      </c>
+      <c r="T56" s="1" t="s">
+        <v>325</v>
+      </c>
+      <c r="U56" s="1" t="s">
+        <v>322</v>
+      </c>
+      <c r="V56" s="4" t="s">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="57" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A57" s="1">
         <v>55</v>
       </c>
@@ -3859,8 +5740,32 @@
       <c r="N57" t="s">
         <v>105</v>
       </c>
-    </row>
-    <row r="58" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O57" s="1" t="s">
+        <v>413</v>
+      </c>
+      <c r="P57" s="1" t="s">
+        <v>412</v>
+      </c>
+      <c r="Q57" s="1" t="s">
+        <v>376</v>
+      </c>
+      <c r="R57" s="1" t="s">
+        <v>415</v>
+      </c>
+      <c r="S57" s="1" t="s">
+        <v>364</v>
+      </c>
+      <c r="T57" s="1" t="s">
+        <v>325</v>
+      </c>
+      <c r="U57" s="1" t="s">
+        <v>322</v>
+      </c>
+      <c r="V57" s="4" t="s">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="58" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A58" s="1">
         <v>56</v>
       </c>
@@ -3903,8 +5808,32 @@
       <c r="N58" t="s">
         <v>105</v>
       </c>
-    </row>
-    <row r="59" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O58" s="1" t="s">
+        <v>416</v>
+      </c>
+      <c r="P58" s="1" t="s">
+        <v>417</v>
+      </c>
+      <c r="Q58" s="1" t="s">
+        <v>376</v>
+      </c>
+      <c r="R58" s="1" t="s">
+        <v>418</v>
+      </c>
+      <c r="S58" s="1" t="s">
+        <v>378</v>
+      </c>
+      <c r="T58" s="1" t="s">
+        <v>321</v>
+      </c>
+      <c r="U58" s="1" t="s">
+        <v>322</v>
+      </c>
+      <c r="V58" s="4" t="s">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="59" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A59" s="1">
         <v>57</v>
       </c>
@@ -3947,8 +5876,32 @@
       <c r="N59" t="s">
         <v>105</v>
       </c>
-    </row>
-    <row r="60" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O59" s="1" t="s">
+        <v>417</v>
+      </c>
+      <c r="P59" s="1" t="s">
+        <v>416</v>
+      </c>
+      <c r="Q59" s="1" t="s">
+        <v>376</v>
+      </c>
+      <c r="R59" s="1" t="s">
+        <v>419</v>
+      </c>
+      <c r="S59" s="1" t="s">
+        <v>378</v>
+      </c>
+      <c r="T59" s="1" t="s">
+        <v>321</v>
+      </c>
+      <c r="U59" s="1" t="s">
+        <v>322</v>
+      </c>
+      <c r="V59" s="4" t="s">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="60" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A60" s="1">
         <v>58</v>
       </c>
@@ -3991,8 +5944,32 @@
       <c r="N60" t="s">
         <v>105</v>
       </c>
-    </row>
-    <row r="61" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O60" s="1" t="s">
+        <v>420</v>
+      </c>
+      <c r="P60" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="Q60" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="R60" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="S60" s="1" t="s">
+        <v>334</v>
+      </c>
+      <c r="T60" s="1" t="s">
+        <v>337</v>
+      </c>
+      <c r="U60" s="1" t="s">
+        <v>322</v>
+      </c>
+      <c r="V60" s="4" t="s">
+        <v>492</v>
+      </c>
+    </row>
+    <row r="61" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A61" s="1">
         <v>59</v>
       </c>
@@ -4035,8 +6012,32 @@
       <c r="N61" t="s">
         <v>105</v>
       </c>
-    </row>
-    <row r="62" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O61" s="1" t="s">
+        <v>421</v>
+      </c>
+      <c r="P61" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="Q61" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="R61" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="S61" s="1" t="s">
+        <v>347</v>
+      </c>
+      <c r="T61" s="1" t="s">
+        <v>337</v>
+      </c>
+      <c r="U61" s="1" t="s">
+        <v>322</v>
+      </c>
+      <c r="V61" s="4" t="s">
+        <v>492</v>
+      </c>
+    </row>
+    <row r="62" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A62" s="1">
         <v>60</v>
       </c>
@@ -4079,8 +6080,32 @@
       <c r="N62" t="s">
         <v>105</v>
       </c>
-    </row>
-    <row r="63" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O62" s="1" t="s">
+        <v>422</v>
+      </c>
+      <c r="P62" s="1" t="s">
+        <v>423</v>
+      </c>
+      <c r="Q62" s="1" t="s">
+        <v>424</v>
+      </c>
+      <c r="R62" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="S62" s="1" t="s">
+        <v>357</v>
+      </c>
+      <c r="T62" s="1" t="s">
+        <v>321</v>
+      </c>
+      <c r="U62" s="1" t="s">
+        <v>322</v>
+      </c>
+      <c r="V62" s="4" t="s">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="63" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A63" s="1">
         <v>61</v>
       </c>
@@ -4123,8 +6148,32 @@
       <c r="N63" t="s">
         <v>105</v>
       </c>
-    </row>
-    <row r="64" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O63" s="1" t="s">
+        <v>423</v>
+      </c>
+      <c r="P63" s="1" t="s">
+        <v>422</v>
+      </c>
+      <c r="Q63" s="1" t="s">
+        <v>424</v>
+      </c>
+      <c r="R63" s="1" t="s">
+        <v>425</v>
+      </c>
+      <c r="S63" s="1" t="s">
+        <v>320</v>
+      </c>
+      <c r="T63" s="1" t="s">
+        <v>332</v>
+      </c>
+      <c r="U63" s="1" t="s">
+        <v>322</v>
+      </c>
+      <c r="V63" s="4" t="s">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="64" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A64" s="1">
         <v>62</v>
       </c>
@@ -4167,8 +6216,32 @@
       <c r="N64" t="s">
         <v>105</v>
       </c>
-    </row>
-    <row r="65" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O64" s="1" t="s">
+        <v>426</v>
+      </c>
+      <c r="P64" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="Q64" s="1" t="s">
+        <v>390</v>
+      </c>
+      <c r="R64" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="S64" s="1" t="s">
+        <v>320</v>
+      </c>
+      <c r="T64" s="1" t="s">
+        <v>321</v>
+      </c>
+      <c r="U64" s="1" t="s">
+        <v>322</v>
+      </c>
+      <c r="V64" s="4" t="s">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="65" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A65" s="1">
         <v>63</v>
       </c>
@@ -4211,8 +6284,32 @@
       <c r="N65" t="s">
         <v>105</v>
       </c>
-    </row>
-    <row r="66" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O65" s="1" t="s">
+        <v>427</v>
+      </c>
+      <c r="P65" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="Q65" s="1" t="s">
+        <v>390</v>
+      </c>
+      <c r="R65" s="1" t="s">
+        <v>428</v>
+      </c>
+      <c r="S65" s="1" t="s">
+        <v>320</v>
+      </c>
+      <c r="T65" s="1" t="s">
+        <v>321</v>
+      </c>
+      <c r="U65" s="1" t="s">
+        <v>322</v>
+      </c>
+      <c r="V65" s="4" t="s">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="66" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A66" s="1">
         <v>64</v>
       </c>
@@ -4255,8 +6352,32 @@
       <c r="N66" t="s">
         <v>105</v>
       </c>
-    </row>
-    <row r="67" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O66" s="1" t="s">
+        <v>429</v>
+      </c>
+      <c r="P66" s="1" t="s">
+        <v>430</v>
+      </c>
+      <c r="Q66" s="1" t="s">
+        <v>376</v>
+      </c>
+      <c r="R66" s="1" t="s">
+        <v>431</v>
+      </c>
+      <c r="S66" s="1" t="s">
+        <v>320</v>
+      </c>
+      <c r="T66" s="1" t="s">
+        <v>325</v>
+      </c>
+      <c r="U66" s="1" t="s">
+        <v>322</v>
+      </c>
+      <c r="V66" s="4" t="s">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="67" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A67" s="1">
         <v>65</v>
       </c>
@@ -4299,8 +6420,32 @@
       <c r="N67" t="s">
         <v>105</v>
       </c>
-    </row>
-    <row r="68" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O67" s="1" t="s">
+        <v>430</v>
+      </c>
+      <c r="P67" s="1" t="s">
+        <v>429</v>
+      </c>
+      <c r="Q67" s="1" t="s">
+        <v>376</v>
+      </c>
+      <c r="R67" s="1" t="s">
+        <v>431</v>
+      </c>
+      <c r="S67" s="1" t="s">
+        <v>320</v>
+      </c>
+      <c r="T67" s="1" t="s">
+        <v>325</v>
+      </c>
+      <c r="U67" s="1" t="s">
+        <v>322</v>
+      </c>
+      <c r="V67" s="4" t="s">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="68" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A68" s="1">
         <v>66</v>
       </c>
@@ -4343,8 +6488,32 @@
       <c r="N68" t="s">
         <v>105</v>
       </c>
-    </row>
-    <row r="69" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O68" s="1" t="s">
+        <v>432</v>
+      </c>
+      <c r="P68" s="1" t="s">
+        <v>433</v>
+      </c>
+      <c r="Q68" s="1" t="s">
+        <v>376</v>
+      </c>
+      <c r="R68" s="1" t="s">
+        <v>434</v>
+      </c>
+      <c r="S68" s="1" t="s">
+        <v>320</v>
+      </c>
+      <c r="T68" s="1" t="s">
+        <v>321</v>
+      </c>
+      <c r="U68" s="1" t="s">
+        <v>322</v>
+      </c>
+      <c r="V68" s="4" t="s">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="69" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A69" s="1">
         <v>67</v>
       </c>
@@ -4387,8 +6556,32 @@
       <c r="N69" t="s">
         <v>105</v>
       </c>
-    </row>
-    <row r="70" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O69" s="1" t="s">
+        <v>433</v>
+      </c>
+      <c r="P69" s="1" t="s">
+        <v>432</v>
+      </c>
+      <c r="Q69" s="1" t="s">
+        <v>376</v>
+      </c>
+      <c r="R69" s="1" t="s">
+        <v>434</v>
+      </c>
+      <c r="S69" s="1" t="s">
+        <v>320</v>
+      </c>
+      <c r="T69" s="1" t="s">
+        <v>321</v>
+      </c>
+      <c r="U69" s="1" t="s">
+        <v>322</v>
+      </c>
+      <c r="V69" s="4" t="s">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="70" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A70" s="1">
         <v>68</v>
       </c>
@@ -4431,8 +6624,32 @@
       <c r="N70" t="s">
         <v>105</v>
       </c>
-    </row>
-    <row r="71" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O70" s="1" t="s">
+        <v>435</v>
+      </c>
+      <c r="P70" s="1" t="s">
+        <v>436</v>
+      </c>
+      <c r="Q70" s="1" t="s">
+        <v>376</v>
+      </c>
+      <c r="R70" s="1" t="s">
+        <v>411</v>
+      </c>
+      <c r="S70" s="1" t="s">
+        <v>320</v>
+      </c>
+      <c r="T70" s="1" t="s">
+        <v>321</v>
+      </c>
+      <c r="U70" s="1" t="s">
+        <v>322</v>
+      </c>
+      <c r="V70" s="4" t="s">
+        <v>492</v>
+      </c>
+    </row>
+    <row r="71" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A71" s="1">
         <v>69</v>
       </c>
@@ -4475,8 +6692,32 @@
       <c r="N71" t="s">
         <v>105</v>
       </c>
-    </row>
-    <row r="72" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O71" s="1" t="s">
+        <v>436</v>
+      </c>
+      <c r="P71" s="1" t="s">
+        <v>435</v>
+      </c>
+      <c r="Q71" s="1" t="s">
+        <v>376</v>
+      </c>
+      <c r="R71" s="1" t="s">
+        <v>411</v>
+      </c>
+      <c r="S71" s="1" t="s">
+        <v>320</v>
+      </c>
+      <c r="T71" s="1" t="s">
+        <v>321</v>
+      </c>
+      <c r="U71" s="1" t="s">
+        <v>322</v>
+      </c>
+      <c r="V71" s="4" t="s">
+        <v>492</v>
+      </c>
+    </row>
+    <row r="72" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A72" s="1">
         <v>70</v>
       </c>
@@ -4519,8 +6760,32 @@
       <c r="N72" t="s">
         <v>105</v>
       </c>
-    </row>
-    <row r="73" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O72" s="1" t="s">
+        <v>437</v>
+      </c>
+      <c r="P72" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="Q72" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="R72" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="S72" s="1" t="s">
+        <v>347</v>
+      </c>
+      <c r="T72" s="1" t="s">
+        <v>337</v>
+      </c>
+      <c r="U72" s="1" t="s">
+        <v>322</v>
+      </c>
+      <c r="V72" s="4" t="s">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="73" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A73" s="1">
         <v>71</v>
       </c>
@@ -4563,8 +6828,32 @@
       <c r="N73" t="s">
         <v>105</v>
       </c>
-    </row>
-    <row r="74" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O73" s="1" t="s">
+        <v>438</v>
+      </c>
+      <c r="P73" s="1" t="s">
+        <v>439</v>
+      </c>
+      <c r="Q73" s="1" t="s">
+        <v>376</v>
+      </c>
+      <c r="R73" s="1" t="s">
+        <v>440</v>
+      </c>
+      <c r="S73" s="1" t="s">
+        <v>320</v>
+      </c>
+      <c r="T73" s="1" t="s">
+        <v>321</v>
+      </c>
+      <c r="U73" s="1" t="s">
+        <v>322</v>
+      </c>
+      <c r="V73" s="4" t="s">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="74" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A74" s="1">
         <v>72</v>
       </c>
@@ -4607,8 +6896,32 @@
       <c r="N74" t="s">
         <v>105</v>
       </c>
-    </row>
-    <row r="75" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O74" s="1" t="s">
+        <v>439</v>
+      </c>
+      <c r="P74" s="1" t="s">
+        <v>438</v>
+      </c>
+      <c r="Q74" s="1" t="s">
+        <v>376</v>
+      </c>
+      <c r="R74" s="1" t="s">
+        <v>441</v>
+      </c>
+      <c r="S74" s="1" t="s">
+        <v>320</v>
+      </c>
+      <c r="T74" s="1" t="s">
+        <v>321</v>
+      </c>
+      <c r="U74" s="1" t="s">
+        <v>322</v>
+      </c>
+      <c r="V74" s="4" t="s">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="75" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A75" s="1">
         <v>73</v>
       </c>
@@ -4651,8 +6964,32 @@
       <c r="N75" t="s">
         <v>105</v>
       </c>
-    </row>
-    <row r="76" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O75" s="1" t="s">
+        <v>442</v>
+      </c>
+      <c r="P75" s="1" t="s">
+        <v>443</v>
+      </c>
+      <c r="Q75" s="1" t="s">
+        <v>376</v>
+      </c>
+      <c r="R75" s="1" t="s">
+        <v>444</v>
+      </c>
+      <c r="S75" s="1" t="s">
+        <v>445</v>
+      </c>
+      <c r="T75" s="1" t="s">
+        <v>332</v>
+      </c>
+      <c r="U75" s="1" t="s">
+        <v>322</v>
+      </c>
+      <c r="V75" s="4" t="s">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="76" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A76" s="1">
         <v>74</v>
       </c>
@@ -4695,8 +7032,32 @@
       <c r="N76" t="s">
         <v>105</v>
       </c>
-    </row>
-    <row r="77" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O76" s="1" t="s">
+        <v>443</v>
+      </c>
+      <c r="P76" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="Q76" s="1" t="s">
+        <v>376</v>
+      </c>
+      <c r="R76" s="1" t="s">
+        <v>446</v>
+      </c>
+      <c r="S76" s="1" t="s">
+        <v>364</v>
+      </c>
+      <c r="T76" s="1" t="s">
+        <v>332</v>
+      </c>
+      <c r="U76" s="1" t="s">
+        <v>322</v>
+      </c>
+      <c r="V76" s="4" t="s">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="77" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A77" s="1">
         <v>75</v>
       </c>
@@ -4739,8 +7100,32 @@
       <c r="N77" t="s">
         <v>105</v>
       </c>
-    </row>
-    <row r="78" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O77" s="1" t="s">
+        <v>447</v>
+      </c>
+      <c r="P77" s="1" t="s">
+        <v>448</v>
+      </c>
+      <c r="Q77" s="1" t="s">
+        <v>449</v>
+      </c>
+      <c r="R77" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="S77" s="1" t="s">
+        <v>445</v>
+      </c>
+      <c r="T77" s="1" t="s">
+        <v>321</v>
+      </c>
+      <c r="U77" s="1" t="s">
+        <v>322</v>
+      </c>
+      <c r="V77" s="4" t="s">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="78" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A78" s="1">
         <v>76</v>
       </c>
@@ -4783,8 +7168,32 @@
       <c r="N78" t="s">
         <v>105</v>
       </c>
-    </row>
-    <row r="79" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O78" s="1" t="s">
+        <v>448</v>
+      </c>
+      <c r="P78" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="Q78" s="1" t="s">
+        <v>390</v>
+      </c>
+      <c r="R78" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="S78" s="1" t="s">
+        <v>450</v>
+      </c>
+      <c r="T78" s="1" t="s">
+        <v>321</v>
+      </c>
+      <c r="U78" s="1" t="s">
+        <v>322</v>
+      </c>
+      <c r="V78" s="4" t="s">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="79" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A79" s="1">
         <v>77</v>
       </c>
@@ -4827,8 +7236,32 @@
       <c r="N79" t="s">
         <v>105</v>
       </c>
-    </row>
-    <row r="80" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O79" s="1" t="s">
+        <v>451</v>
+      </c>
+      <c r="P79" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="Q79" s="1" t="s">
+        <v>390</v>
+      </c>
+      <c r="R79" s="1" t="s">
+        <v>452</v>
+      </c>
+      <c r="S79" s="1" t="s">
+        <v>320</v>
+      </c>
+      <c r="T79" s="1" t="s">
+        <v>321</v>
+      </c>
+      <c r="U79" s="1" t="s">
+        <v>322</v>
+      </c>
+      <c r="V79" s="4" t="s">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="80" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A80" s="1">
         <v>78</v>
       </c>
@@ -4871,8 +7304,32 @@
       <c r="N80" t="s">
         <v>105</v>
       </c>
-    </row>
-    <row r="81" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O80" s="1" t="s">
+        <v>453</v>
+      </c>
+      <c r="P80" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="Q80" s="1" t="s">
+        <v>390</v>
+      </c>
+      <c r="R80" s="1" t="s">
+        <v>452</v>
+      </c>
+      <c r="S80" s="1" t="s">
+        <v>320</v>
+      </c>
+      <c r="T80" s="1" t="s">
+        <v>321</v>
+      </c>
+      <c r="U80" s="1" t="s">
+        <v>322</v>
+      </c>
+      <c r="V80" s="4" t="s">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="81" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A81" s="1">
         <v>79</v>
       </c>
@@ -4915,8 +7372,32 @@
       <c r="N81" t="s">
         <v>105</v>
       </c>
-    </row>
-    <row r="82" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O81" s="1" t="s">
+        <v>453</v>
+      </c>
+      <c r="P81" s="1" t="s">
+        <v>448</v>
+      </c>
+      <c r="Q81" s="1" t="s">
+        <v>449</v>
+      </c>
+      <c r="R81" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="S81" s="1" t="s">
+        <v>364</v>
+      </c>
+      <c r="T81" s="1" t="s">
+        <v>321</v>
+      </c>
+      <c r="U81" s="1" t="s">
+        <v>322</v>
+      </c>
+      <c r="V81" s="4" t="s">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="82" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A82" s="1">
         <v>80</v>
       </c>
@@ -4959,8 +7440,32 @@
       <c r="N82" t="s">
         <v>105</v>
       </c>
-    </row>
-    <row r="83" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O82" s="1" t="s">
+        <v>454</v>
+      </c>
+      <c r="P82" s="1" t="s">
+        <v>455</v>
+      </c>
+      <c r="Q82" s="1" t="s">
+        <v>449</v>
+      </c>
+      <c r="R82" s="1" t="s">
+        <v>456</v>
+      </c>
+      <c r="S82" s="1" t="s">
+        <v>320</v>
+      </c>
+      <c r="T82" s="1" t="s">
+        <v>321</v>
+      </c>
+      <c r="U82" s="1" t="s">
+        <v>322</v>
+      </c>
+      <c r="V82" s="4" t="s">
+        <v>492</v>
+      </c>
+    </row>
+    <row r="83" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A83" s="1">
         <v>81</v>
       </c>
@@ -5003,8 +7508,32 @@
       <c r="N83" t="s">
         <v>105</v>
       </c>
-    </row>
-    <row r="84" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O83" s="1" t="s">
+        <v>455</v>
+      </c>
+      <c r="P83" s="1" t="s">
+        <v>454</v>
+      </c>
+      <c r="Q83" s="1" t="s">
+        <v>457</v>
+      </c>
+      <c r="R83" s="1" t="s">
+        <v>458</v>
+      </c>
+      <c r="S83" s="1" t="s">
+        <v>320</v>
+      </c>
+      <c r="T83" s="1" t="s">
+        <v>321</v>
+      </c>
+      <c r="U83" s="1" t="s">
+        <v>322</v>
+      </c>
+      <c r="V83" s="4" t="s">
+        <v>492</v>
+      </c>
+    </row>
+    <row r="84" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A84" s="1">
         <v>82</v>
       </c>
@@ -5047,8 +7576,32 @@
       <c r="N84" t="s">
         <v>105</v>
       </c>
-    </row>
-    <row r="85" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O84" s="1" t="s">
+        <v>459</v>
+      </c>
+      <c r="P84" s="1" t="s">
+        <v>460</v>
+      </c>
+      <c r="Q84" s="1" t="s">
+        <v>376</v>
+      </c>
+      <c r="R84" s="1" t="s">
+        <v>461</v>
+      </c>
+      <c r="S84" s="1" t="s">
+        <v>320</v>
+      </c>
+      <c r="T84" s="1" t="s">
+        <v>337</v>
+      </c>
+      <c r="U84" s="1" t="s">
+        <v>322</v>
+      </c>
+      <c r="V84" s="4" t="s">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="85" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A85" s="1">
         <v>83</v>
       </c>
@@ -5091,8 +7644,32 @@
       <c r="N85" t="s">
         <v>105</v>
       </c>
-    </row>
-    <row r="86" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O85" s="1" t="s">
+        <v>460</v>
+      </c>
+      <c r="P85" s="1" t="s">
+        <v>459</v>
+      </c>
+      <c r="Q85" s="1" t="s">
+        <v>376</v>
+      </c>
+      <c r="R85" s="1" t="s">
+        <v>462</v>
+      </c>
+      <c r="S85" s="1" t="s">
+        <v>320</v>
+      </c>
+      <c r="T85" s="1" t="s">
+        <v>337</v>
+      </c>
+      <c r="U85" s="1" t="s">
+        <v>322</v>
+      </c>
+      <c r="V85" s="4" t="s">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="86" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A86" s="1">
         <v>84</v>
       </c>
@@ -5135,8 +7712,32 @@
       <c r="N86" t="s">
         <v>105</v>
       </c>
-    </row>
-    <row r="87" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O86" s="1" t="s">
+        <v>463</v>
+      </c>
+      <c r="P86" s="1" t="s">
+        <v>464</v>
+      </c>
+      <c r="Q86" s="1" t="s">
+        <v>376</v>
+      </c>
+      <c r="R86" s="1" t="s">
+        <v>465</v>
+      </c>
+      <c r="S86" s="1" t="s">
+        <v>320</v>
+      </c>
+      <c r="T86" s="1" t="s">
+        <v>321</v>
+      </c>
+      <c r="U86" s="1" t="s">
+        <v>322</v>
+      </c>
+      <c r="V86" s="4" t="s">
+        <v>492</v>
+      </c>
+    </row>
+    <row r="87" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A87" s="1">
         <v>85</v>
       </c>
@@ -5179,8 +7780,32 @@
       <c r="N87" t="s">
         <v>105</v>
       </c>
-    </row>
-    <row r="88" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O87" s="1" t="s">
+        <v>464</v>
+      </c>
+      <c r="P87" s="1" t="s">
+        <v>463</v>
+      </c>
+      <c r="Q87" s="1" t="s">
+        <v>376</v>
+      </c>
+      <c r="R87" s="1" t="s">
+        <v>465</v>
+      </c>
+      <c r="S87" s="1" t="s">
+        <v>320</v>
+      </c>
+      <c r="T87" s="1" t="s">
+        <v>321</v>
+      </c>
+      <c r="U87" s="1" t="s">
+        <v>322</v>
+      </c>
+      <c r="V87" s="4" t="s">
+        <v>492</v>
+      </c>
+    </row>
+    <row r="88" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A88" s="1">
         <v>86</v>
       </c>
@@ -5223,8 +7848,32 @@
       <c r="N88" t="s">
         <v>105</v>
       </c>
-    </row>
-    <row r="89" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O88" s="1" t="s">
+        <v>466</v>
+      </c>
+      <c r="P88" s="1" t="s">
+        <v>467</v>
+      </c>
+      <c r="Q88" s="1" t="s">
+        <v>376</v>
+      </c>
+      <c r="R88" s="1" t="s">
+        <v>468</v>
+      </c>
+      <c r="S88" s="1" t="s">
+        <v>320</v>
+      </c>
+      <c r="T88" s="1" t="s">
+        <v>321</v>
+      </c>
+      <c r="U88" s="1" t="s">
+        <v>322</v>
+      </c>
+      <c r="V88" s="4" t="s">
+        <v>492</v>
+      </c>
+    </row>
+    <row r="89" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A89" s="1">
         <v>87</v>
       </c>
@@ -5267,8 +7916,32 @@
       <c r="N89" t="s">
         <v>105</v>
       </c>
-    </row>
-    <row r="90" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O89" s="1" t="s">
+        <v>467</v>
+      </c>
+      <c r="P89" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="Q89" s="1" t="s">
+        <v>376</v>
+      </c>
+      <c r="R89" s="1" t="s">
+        <v>468</v>
+      </c>
+      <c r="S89" s="1" t="s">
+        <v>320</v>
+      </c>
+      <c r="T89" s="1" t="s">
+        <v>321</v>
+      </c>
+      <c r="U89" s="1" t="s">
+        <v>322</v>
+      </c>
+      <c r="V89" s="4" t="s">
+        <v>492</v>
+      </c>
+    </row>
+    <row r="90" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A90" s="1">
         <v>88</v>
       </c>
@@ -5311,8 +7984,32 @@
       <c r="N90" t="s">
         <v>105</v>
       </c>
-    </row>
-    <row r="91" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O90" s="1" t="s">
+        <v>469</v>
+      </c>
+      <c r="P90" s="1" t="s">
+        <v>470</v>
+      </c>
+      <c r="Q90" s="1" t="s">
+        <v>376</v>
+      </c>
+      <c r="R90" s="1" t="s">
+        <v>471</v>
+      </c>
+      <c r="S90" s="1" t="s">
+        <v>320</v>
+      </c>
+      <c r="T90" s="1" t="s">
+        <v>332</v>
+      </c>
+      <c r="U90" s="1" t="s">
+        <v>322</v>
+      </c>
+      <c r="V90" s="4" t="s">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="91" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A91" s="1">
         <v>89</v>
       </c>
@@ -5355,8 +8052,32 @@
       <c r="N91" t="s">
         <v>105</v>
       </c>
-    </row>
-    <row r="92" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O91" s="1" t="s">
+        <v>470</v>
+      </c>
+      <c r="P91" s="1" t="s">
+        <v>469</v>
+      </c>
+      <c r="Q91" s="1" t="s">
+        <v>376</v>
+      </c>
+      <c r="R91" s="1" t="s">
+        <v>471</v>
+      </c>
+      <c r="S91" s="1" t="s">
+        <v>320</v>
+      </c>
+      <c r="T91" s="1" t="s">
+        <v>332</v>
+      </c>
+      <c r="U91" s="1" t="s">
+        <v>322</v>
+      </c>
+      <c r="V91" s="4" t="s">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="92" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A92" s="1">
         <v>90</v>
       </c>
@@ -5399,8 +8120,32 @@
       <c r="N92" t="s">
         <v>105</v>
       </c>
-    </row>
-    <row r="93" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O92" s="1" t="s">
+        <v>472</v>
+      </c>
+      <c r="P92" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="Q92" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="R92" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="S92" s="1" t="s">
+        <v>347</v>
+      </c>
+      <c r="T92" s="1" t="s">
+        <v>337</v>
+      </c>
+      <c r="U92" s="1" t="s">
+        <v>322</v>
+      </c>
+      <c r="V92" s="4" t="s">
+        <v>492</v>
+      </c>
+    </row>
+    <row r="93" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A93" s="1">
         <v>91</v>
       </c>
@@ -5443,8 +8188,32 @@
       <c r="N93" t="s">
         <v>105</v>
       </c>
-    </row>
-    <row r="94" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O93" s="1" t="s">
+        <v>473</v>
+      </c>
+      <c r="P93" s="1" t="s">
+        <v>474</v>
+      </c>
+      <c r="Q93" s="1" t="s">
+        <v>449</v>
+      </c>
+      <c r="R93" s="1" t="s">
+        <v>475</v>
+      </c>
+      <c r="S93" s="1" t="s">
+        <v>324</v>
+      </c>
+      <c r="T93" s="1" t="s">
+        <v>321</v>
+      </c>
+      <c r="U93" s="1" t="s">
+        <v>322</v>
+      </c>
+      <c r="V93" s="4" t="s">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="94" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A94" s="1">
         <v>92</v>
       </c>
@@ -5487,8 +8256,32 @@
       <c r="N94" t="s">
         <v>105</v>
       </c>
-    </row>
-    <row r="95" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O94" s="1" t="s">
+        <v>476</v>
+      </c>
+      <c r="P94" s="1" t="s">
+        <v>474</v>
+      </c>
+      <c r="Q94" s="1" t="s">
+        <v>449</v>
+      </c>
+      <c r="R94" s="1" t="s">
+        <v>477</v>
+      </c>
+      <c r="S94" s="1" t="s">
+        <v>320</v>
+      </c>
+      <c r="T94" s="1" t="s">
+        <v>321</v>
+      </c>
+      <c r="U94" s="1" t="s">
+        <v>322</v>
+      </c>
+      <c r="V94" s="4" t="s">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="95" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A95" s="1">
         <v>93</v>
       </c>
@@ -5531,8 +8324,32 @@
       <c r="N95" t="s">
         <v>105</v>
       </c>
-    </row>
-    <row r="96" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O95" s="1" t="s">
+        <v>478</v>
+      </c>
+      <c r="P95" s="1" t="s">
+        <v>474</v>
+      </c>
+      <c r="Q95" s="1" t="s">
+        <v>376</v>
+      </c>
+      <c r="R95" s="1" t="s">
+        <v>477</v>
+      </c>
+      <c r="S95" s="1" t="s">
+        <v>320</v>
+      </c>
+      <c r="T95" s="1" t="s">
+        <v>321</v>
+      </c>
+      <c r="U95" s="1" t="s">
+        <v>322</v>
+      </c>
+      <c r="V95" s="4" t="s">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="96" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A96" s="1">
         <v>94</v>
       </c>
@@ -5575,8 +8392,32 @@
       <c r="N96" t="s">
         <v>105</v>
       </c>
-    </row>
-    <row r="97" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O96" s="1" t="s">
+        <v>474</v>
+      </c>
+      <c r="P96" s="1" t="s">
+        <v>478</v>
+      </c>
+      <c r="Q96" s="1" t="s">
+        <v>376</v>
+      </c>
+      <c r="R96" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="S96" s="1" t="s">
+        <v>479</v>
+      </c>
+      <c r="T96" s="1" t="s">
+        <v>321</v>
+      </c>
+      <c r="U96" s="1" t="s">
+        <v>322</v>
+      </c>
+      <c r="V96" s="4" t="s">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="97" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A97" s="1">
         <v>95</v>
       </c>
@@ -5619,8 +8460,32 @@
       <c r="N97" t="s">
         <v>105</v>
       </c>
-    </row>
-    <row r="98" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O97" s="1" t="s">
+        <v>480</v>
+      </c>
+      <c r="P97" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="Q97" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="R97" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="S97" s="1" t="s">
+        <v>347</v>
+      </c>
+      <c r="T97" s="1" t="s">
+        <v>337</v>
+      </c>
+      <c r="U97" s="1" t="s">
+        <v>322</v>
+      </c>
+      <c r="V97" s="4" t="s">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="98" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A98" s="1">
         <v>96</v>
       </c>
@@ -5663,8 +8528,32 @@
       <c r="N98" t="s">
         <v>105</v>
       </c>
-    </row>
-    <row r="99" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O98" s="1" t="s">
+        <v>481</v>
+      </c>
+      <c r="P98" s="1" t="s">
+        <v>482</v>
+      </c>
+      <c r="Q98" s="1" t="s">
+        <v>376</v>
+      </c>
+      <c r="R98" s="1" t="s">
+        <v>483</v>
+      </c>
+      <c r="S98" s="1" t="s">
+        <v>445</v>
+      </c>
+      <c r="T98" s="1" t="s">
+        <v>484</v>
+      </c>
+      <c r="U98" s="1" t="s">
+        <v>322</v>
+      </c>
+      <c r="V98" s="4" t="s">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="99" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A99" s="1">
         <v>97</v>
       </c>
@@ -5707,8 +8596,32 @@
       <c r="N99" t="s">
         <v>105</v>
       </c>
-    </row>
-    <row r="100" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O99" s="1" t="s">
+        <v>482</v>
+      </c>
+      <c r="P99" s="1" t="s">
+        <v>481</v>
+      </c>
+      <c r="Q99" s="1" t="s">
+        <v>376</v>
+      </c>
+      <c r="R99" s="1" t="s">
+        <v>483</v>
+      </c>
+      <c r="S99" s="1" t="s">
+        <v>445</v>
+      </c>
+      <c r="T99" s="1" t="s">
+        <v>484</v>
+      </c>
+      <c r="U99" s="1" t="s">
+        <v>322</v>
+      </c>
+      <c r="V99" s="4" t="s">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="100" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A100" s="1">
         <v>98</v>
       </c>
@@ -5751,8 +8664,32 @@
       <c r="N100" t="s">
         <v>105</v>
       </c>
-    </row>
-    <row r="101" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O100" s="1" t="s">
+        <v>485</v>
+      </c>
+      <c r="P100" s="1" t="s">
+        <v>486</v>
+      </c>
+      <c r="Q100" s="1" t="s">
+        <v>376</v>
+      </c>
+      <c r="R100" s="1" t="s">
+        <v>487</v>
+      </c>
+      <c r="S100" s="1" t="s">
+        <v>320</v>
+      </c>
+      <c r="T100" s="1" t="s">
+        <v>332</v>
+      </c>
+      <c r="U100" s="1" t="s">
+        <v>322</v>
+      </c>
+      <c r="V100" s="4" t="s">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="101" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A101" s="1">
         <v>99</v>
       </c>
@@ -5795,8 +8732,32 @@
       <c r="N101" t="s">
         <v>105</v>
       </c>
-    </row>
-    <row r="102" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O101" s="1" t="s">
+        <v>486</v>
+      </c>
+      <c r="P101" s="1" t="s">
+        <v>485</v>
+      </c>
+      <c r="Q101" s="1" t="s">
+        <v>376</v>
+      </c>
+      <c r="R101" s="1" t="s">
+        <v>488</v>
+      </c>
+      <c r="S101" s="1" t="s">
+        <v>320</v>
+      </c>
+      <c r="T101" s="1" t="s">
+        <v>332</v>
+      </c>
+      <c r="U101" s="1" t="s">
+        <v>322</v>
+      </c>
+      <c r="V101" s="4" t="s">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="102" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A102" s="1">
         <v>100</v>
       </c>
@@ -5832,6 +8793,35 @@
       </c>
       <c r="L102" t="s">
         <v>93</v>
+      </c>
+      <c r="O102" s="1" t="s">
+        <v>489</v>
+      </c>
+      <c r="P102" s="1" t="s">
+        <v>490</v>
+      </c>
+      <c r="Q102" s="1" t="s">
+        <v>376</v>
+      </c>
+      <c r="R102" s="1" t="s">
+        <v>491</v>
+      </c>
+      <c r="S102" s="1" t="s">
+        <v>320</v>
+      </c>
+      <c r="T102" s="1" t="s">
+        <v>325</v>
+      </c>
+      <c r="U102" s="1" t="s">
+        <v>322</v>
+      </c>
+      <c r="V102" s="4" t="s">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="103" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="V103" s="4" t="s">
+        <v>493</v>
       </c>
     </row>
   </sheetData>
